--- a/Selenium Java/src/TestData.xlsx
+++ b/Selenium Java/src/TestData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="63">
   <si>
     <t>Step_1_URL_FIELD</t>
   </si>
@@ -143,247 +143,67 @@
     <t>administrator</t>
   </si>
   <si>
+    <t>Step_8_Issue_ID_SELF_HYPERLINK_Status</t>
+  </si>
+  <si>
+    <t>Step_8_Issue_Name_SELF_HYPERLINK_Status</t>
+  </si>
+  <si>
+    <t>Step_8_View_Issues_SELF_BUTTON_Status</t>
+  </si>
+  <si>
+    <t>Step_8_fghj_LABEL_Status</t>
+  </si>
+  <si>
+    <t>Step_8_fghj_LABEL_Verification</t>
+  </si>
+  <si>
+    <t>Step_8_Issue_ID_UN_HYPERLINK_Status</t>
+  </si>
+  <si>
+    <t>Step_8_Issue_Name_UN_HYPERLINK_Status</t>
+  </si>
+  <si>
+    <t>Step_8_View_Issues_UN_BUTTON_Status</t>
+  </si>
+  <si>
+    <t>Step_8_Issue_ID_REP_ME_HYPERLINK_Status</t>
+  </si>
+  <si>
+    <t>Step_8_Issue_Name_REP_ME_HYPERLINK_Status</t>
+  </si>
+  <si>
+    <t>Step_8_View_Issues_REP_ME_BUTTON_Status</t>
+  </si>
+  <si>
+    <t>Step_8_Issue_ID_RES_HYPERLINK_Status</t>
+  </si>
+  <si>
+    <t>Step_8_Issue_Name_RES_HYPERLINK_Status</t>
+  </si>
+  <si>
+    <t>Step_8_View_Issues_RES_BUTTON_Status</t>
+  </si>
+  <si>
+    <t>Step_8_Issue_ID_REC_HYPERLINK_Status</t>
+  </si>
+  <si>
+    <t>Step_8_Issue_Name_REC_HYPERLINK_Status</t>
+  </si>
+  <si>
+    <t>Step_8_View_Issues_REC_BUTTON_Status</t>
+  </si>
+  <si>
+    <t>Step_8_Previous_BUTTON_Status</t>
+  </si>
+  <si>
+    <t>Step_8_username_TIMELINE_HYPERLINK_Status</t>
+  </si>
+  <si>
+    <t>Step_8_Issue_ID_TIMELINE_HYPERLINK_Status</t>
+  </si>
+  <si>
     <t>invalidadmin</t>
-  </si>
-  <si>
-    <t>Step_8_Issue_ID_SELF_HYPERLINK_Status</t>
-  </si>
-  <si>
-    <t>Step_8_Issue_Name_SELF_HYPERLINK_Status</t>
-  </si>
-  <si>
-    <t>Step_8_View_Issues_SELF_BUTTON_Status</t>
-  </si>
-  <si>
-    <t>Step_8_fghj_LABEL_Status</t>
-  </si>
-  <si>
-    <t>Step_8_fghj_LABEL_Verification</t>
-  </si>
-  <si>
-    <t>Step_8_Issue_ID_UN_HYPERLINK_Status</t>
-  </si>
-  <si>
-    <t>Step_8_Issue_Name_UN_HYPERLINK_Status</t>
-  </si>
-  <si>
-    <t>Step_8_View_Issues_UN_BUTTON_Status</t>
-  </si>
-  <si>
-    <t>Step_8_Issue_ID_REP_ME_HYPERLINK_Status</t>
-  </si>
-  <si>
-    <t>Step_8_Issue_Name_REP_ME_HYPERLINK_Status</t>
-  </si>
-  <si>
-    <t>Step_8_View_Issues_REP_ME_BUTTON_Status</t>
-  </si>
-  <si>
-    <t>Step_8_Issue_ID_RES_HYPERLINK_Status</t>
-  </si>
-  <si>
-    <t>Step_8_Issue_Name_RES_HYPERLINK_Status</t>
-  </si>
-  <si>
-    <t>Step_8_View_Issues_RES_BUTTON_Status</t>
-  </si>
-  <si>
-    <t>Step_8_Issue_ID_REC_HYPERLINK_Status</t>
-  </si>
-  <si>
-    <t>Step_8_Issue_Name_REC_HYPERLINK_Status</t>
-  </si>
-  <si>
-    <t>Step_8_View_Issues_REC_BUTTON_Status</t>
-  </si>
-  <si>
-    <t>Step_8_Previous_BUTTON_Status</t>
-  </si>
-  <si>
-    <t>Step_8_username_TIMELINE_HYPERLINK_Status</t>
-  </si>
-  <si>
-    <t>Step_8_Issue_ID_TIMELINE_HYPERLINK_Status</t>
-  </si>
-  <si>
-    <t>Step_10_Category_DROPDOWN_Status</t>
-  </si>
-  <si>
-    <t>Step_10_Category_DROPDOWN_Verification</t>
-  </si>
-  <si>
-    <t>Step_10_Reproducibility_DROPDOWN_Status</t>
-  </si>
-  <si>
-    <t>Step_10_Reproducibility_DROPDOWN_Verification</t>
-  </si>
-  <si>
-    <t>Step_10_Severity_DROPDOWN_Status</t>
-  </si>
-  <si>
-    <t>Step_10_Severity_DROPDOWN_Verification</t>
-  </si>
-  <si>
-    <t>Step_10_Priority_DROPDOWN_Status</t>
-  </si>
-  <si>
-    <t>Step_10_Priority_DROPDOWN_Verification</t>
-  </si>
-  <si>
-    <t>Step_10_Assign_to_DROPDOWN_Status</t>
-  </si>
-  <si>
-    <t>Step_10_Assign_to_DROPDOWN_Verification</t>
-  </si>
-  <si>
-    <t>Step_10_Summary_TEXT_TEXTBOX_Status</t>
-  </si>
-  <si>
-    <t>Step_10_Summary_TEXT_TEXTBOX_Verification</t>
-  </si>
-  <si>
-    <t>Step_10_Description_TEXTBOX_Status</t>
-  </si>
-  <si>
-    <t>Step_10_Description_TEXTBOX_Verification</t>
-  </si>
-  <si>
-    <t>Step_10_Platform_TEXTBOX_Status</t>
-  </si>
-  <si>
-    <t>Step_10_Platform_TEXTBOX_Verification</t>
-  </si>
-  <si>
-    <t>Step_10_OS_TEXTBOX_Status</t>
-  </si>
-  <si>
-    <t>Step_10_OS_TEXTBOX_Verification</t>
-  </si>
-  <si>
-    <t>Step_10_OS_Version_TEXTBOX_Status</t>
-  </si>
-  <si>
-    <t>Step_10_OS_Version_TEXTBOX_Verification</t>
-  </si>
-  <si>
-    <t>Step_10_Steps_to_Reproduce_TEXTBOX_Status</t>
-  </si>
-  <si>
-    <t>Step_10_Steps_to_Reproduce_TEXTBOX_Verification</t>
-  </si>
-  <si>
-    <t>Step_10_Additional_Information_TEXTBOX_Status</t>
-  </si>
-  <si>
-    <t>Step_10_Additional_Information_TEXTBOX_Verification</t>
-  </si>
-  <si>
-    <t>Step_10_Attach_Tags_TEXTBOX_Status</t>
-  </si>
-  <si>
-    <t>Step_10_Attach_Tags_TEXTBOX_Verification</t>
-  </si>
-  <si>
-    <t>Step_10_Report_Stay_CHECKBOX_Status</t>
-  </si>
-  <si>
-    <t>Step_10_Report_Stay_CHECKBOX_Verification</t>
-  </si>
-  <si>
-    <t>Step_10_Submit_Issue_BUTTON_Status</t>
-  </si>
-  <si>
-    <t>Step_10_Select_Profile_HYPERLINK_Status</t>
-  </si>
-  <si>
-    <t>Step_10_Upload_Files_HYPERLINK_Status</t>
-  </si>
-  <si>
-    <t>Step_10_Existing_tags_DROPDOWN_Status</t>
-  </si>
-  <si>
-    <t>Step_10_Existing_tags_DROPDOWN_Verification</t>
-  </si>
-  <si>
-    <t>Step_10_public_RADIOBUTTON_Status</t>
-  </si>
-  <si>
-    <t>Step_10_private_RADIOBUTTON_Status</t>
-  </si>
-  <si>
-    <t>Step_11_Category_DROPDOWN</t>
-  </si>
-  <si>
-    <t>All Categories</t>
-  </si>
-  <si>
-    <t>Step_11_Reproducibility_DROPDOWN</t>
-  </si>
-  <si>
-    <t>random</t>
-  </si>
-  <si>
-    <t>Step_11_Severity_DROPDOWN</t>
-  </si>
-  <si>
-    <t>minor</t>
-  </si>
-  <si>
-    <t>Step_11_Priority_DROPDOWN</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>Step_11_Assign_to_DROPDOWN</t>
-  </si>
-  <si>
-    <t>unassigned</t>
-  </si>
-  <si>
-    <t>Step_11_Summary_TEXT_TEXTBOX</t>
-  </si>
-  <si>
-    <t>demo</t>
-  </si>
-  <si>
-    <t>Step_11_Description_TEXTBOX</t>
-  </si>
-  <si>
-    <t>Step_11_Platform_TEXTBOX</t>
-  </si>
-  <si>
-    <t>desktop</t>
-  </si>
-  <si>
-    <t>Step_11_OS_TEXTBOX</t>
-  </si>
-  <si>
-    <t>windows</t>
-  </si>
-  <si>
-    <t>Step_11_OS_Version_TEXTBOX</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Step_11_Steps_to_Reproduce_TEXTBOX</t>
-  </si>
-  <si>
-    <t>Step_11_Additional_Information_TEXTBOX</t>
-  </si>
-  <si>
-    <t>Step_11_Attach_Tags_TEXTBOX</t>
-  </si>
-  <si>
-    <t>Step_11_Report_Stay_CHECKBOX</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>Step_11_Existing_tags_DROPDOWN</t>
   </si>
 </sst>
 </file>
@@ -766,7 +586,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:BE2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -881,6 +701,66 @@
       <c r="AJ1" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="AK1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
@@ -953,7 +833,7 @@
         <v>3</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>3</v>
@@ -990,6 +870,66 @@
       </c>
       <c r="AJ2" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +939,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:DC2"/>
+  <dimension ref="A1:BE2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1115,214 +1055,64 @@
         <v>40</v>
       </c>
       <c r="AK1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="BD1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="BE1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="BF1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="BH1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="BI1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="BK1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="BL1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="BN1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="BO1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BP1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="BQ1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="BS1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="BT1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="BU1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="BV1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BW1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="BX1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BY1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BZ1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="CA1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CB1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="CC1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="CD1" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="CE1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="CF1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="CG1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="CH1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="CI1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="CJ1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="CK1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="CL1" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="CM1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CN1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="CO1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="CP1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="CQ1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR1" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="CS1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="CT1" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="CU1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="CV1" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="CW1" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="CX1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="CY1" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="CZ1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="DA1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="DB1" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2">
@@ -1396,7 +1186,7 @@
         <v>3</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="Y2" s="4" t="s">
         <v>3</v>
@@ -1492,156 +1282,6 @@
         <v>3</v>
       </c>
       <c r="BD2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BE2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BF2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BG2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BH2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BI2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BK2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BL2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BM2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BN2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BO2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BP2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BQ2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BR2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BS2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BT2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BU2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BV2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BW2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BX2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BY2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BZ2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CA2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CB2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CC2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CD2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CE2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CF2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CG2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CH2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CI2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CJ2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CK2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CL2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CM2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CN2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="CO2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="CP2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="CQ2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="CR2" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="CS2" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="CT2" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="CU2" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="CV2" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="CW2" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="CX2" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="CY2" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="CZ2" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="DA2" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="DB2" s="4" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Selenium Java/src/TestData.xlsx
+++ b/Selenium Java/src/TestData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="135">
   <si>
     <t>Step_1_URL_FIELD</t>
   </si>
@@ -47,6 +47,147 @@
     <t>Step_3_username_TEXTBOX</t>
   </si>
   <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Step_5_Enter_your_password_TEXTBOX_Status</t>
+  </si>
+  <si>
+    <t>Step_5_Enter_your_password_TEXTBOX_Verification</t>
+  </si>
+  <si>
+    <t>Step_5_Login_BUTTON_Status</t>
+  </si>
+  <si>
+    <t>Step_5_Keep_me_logged_in_CHECKBOX_Status</t>
+  </si>
+  <si>
+    <t>Step_5_Keep_me_logged_in_CHECKBOX_Verification</t>
+  </si>
+  <si>
+    <t>Step_5_Only_allow_your_session_to_be_used_from_this_IP_address__CHECKBOX_Status</t>
+  </si>
+  <si>
+    <t>Step_5_Only_allow_your_session_to_be_used_from_this_IP_address__CHECKBOX_Verification</t>
+  </si>
+  <si>
+    <t>Step_5_Lost_your_password__HYPERLINK_Status</t>
+  </si>
+  <si>
+    <t>Step_5_Invalid_credentials_error_message_LABEL_Status</t>
+  </si>
+  <si>
+    <t>Step_5_Invalid_credentials_error_message_LABEL_Verification</t>
+  </si>
+  <si>
+    <t>Step_6_Enter_your_password_TEXTBOX</t>
+  </si>
+  <si>
+    <t>Step_6_Keep_me_logged_in_CHECKBOX</t>
+  </si>
+  <si>
+    <t>Step_6_Only_allow_your_session_to_be_used_from_this_IP_address__CHECKBOX</t>
+  </si>
+  <si>
+    <t>Step_8_Enter_your_password_TEXTBOX_Status</t>
+  </si>
+  <si>
+    <t>Step_8_Enter_your_password_TEXTBOX_Verification</t>
+  </si>
+  <si>
+    <t>Step_8_Login_BUTTON_Status</t>
+  </si>
+  <si>
+    <t>Step_8_Keep_me_logged_in_CHECKBOX_Status</t>
+  </si>
+  <si>
+    <t>Step_8_Keep_me_logged_in_CHECKBOX_Verification</t>
+  </si>
+  <si>
+    <t>Step_8_Only_allow_your_session_to_be_used_from_this_IP_address__CHECKBOX_Status</t>
+  </si>
+  <si>
+    <t>Step_8_Only_allow_your_session_to_be_used_from_this_IP_address__CHECKBOX_Verification</t>
+  </si>
+  <si>
+    <t>Step_8_Lost_your_password__HYPERLINK_Status</t>
+  </si>
+  <si>
+    <t>Step_8_Invalid_credentials_error_message_LABEL_Status</t>
+  </si>
+  <si>
+    <t>Step_8_Invalid_credentials_error_message_LABEL_Verification</t>
+  </si>
+  <si>
+    <t>Your account may be disabled or blocked or the username/password you entered is incorrect.</t>
+  </si>
+  <si>
+    <t>administrator</t>
+  </si>
+  <si>
+    <t>Step_8_Issue_ID_SELF_HYPERLINK_Status</t>
+  </si>
+  <si>
+    <t>Step_8_Issue_Name_SELF_HYPERLINK_Status</t>
+  </si>
+  <si>
+    <t>Step_8_View_Issues_SELF_BUTTON_Status</t>
+  </si>
+  <si>
+    <t>Step_8_fghj_LABEL_Status</t>
+  </si>
+  <si>
+    <t>Step_8_fghj_LABEL_Verification</t>
+  </si>
+  <si>
+    <t>Step_8_Issue_ID_UN_HYPERLINK_Status</t>
+  </si>
+  <si>
+    <t>Step_8_Issue_Name_UN_HYPERLINK_Status</t>
+  </si>
+  <si>
+    <t>Step_8_View_Issues_UN_BUTTON_Status</t>
+  </si>
+  <si>
+    <t>Step_8_Issue_ID_REP_ME_HYPERLINK_Status</t>
+  </si>
+  <si>
+    <t>Step_8_Issue_Name_REP_ME_HYPERLINK_Status</t>
+  </si>
+  <si>
+    <t>Step_8_View_Issues_REP_ME_BUTTON_Status</t>
+  </si>
+  <si>
+    <t>Step_8_Issue_ID_RES_HYPERLINK_Status</t>
+  </si>
+  <si>
+    <t>Step_8_Issue_Name_RES_HYPERLINK_Status</t>
+  </si>
+  <si>
+    <t>Step_8_View_Issues_RES_BUTTON_Status</t>
+  </si>
+  <si>
+    <t>Step_8_Issue_ID_REC_HYPERLINK_Status</t>
+  </si>
+  <si>
+    <t>Step_8_Issue_Name_REC_HYPERLINK_Status</t>
+  </si>
+  <si>
+    <t>Step_8_View_Issues_REC_BUTTON_Status</t>
+  </si>
+  <si>
+    <t>Step_8_Previous_BUTTON_Status</t>
+  </si>
+  <si>
+    <t>Step_8_username_TIMELINE_HYPERLINK_Status</t>
+  </si>
+  <si>
+    <t>Step_8_Issue_ID_TIMELINE_HYPERLINK_Status</t>
+  </si>
+  <si>
+    <t>invalidadmin</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -56,9 +197,6 @@
     <t>Step_5_username_TEXTBOX_Verification</t>
   </si>
   <si>
-    <t>Step_5_Login_BUTTON_Status</t>
-  </si>
-  <si>
     <t>Step_5_Sign_up_for_a_new_account_HYPERLINK_Status</t>
   </si>
   <si>
@@ -68,142 +206,220 @@
     <t>Step_5_Empty_username_error_message_LABEL_Verification</t>
   </si>
   <si>
-    <t>Your account may be disabled or blocked or the username/password you entered is incorrect.</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>Step_5_Enter_your_password_TEXTBOX_Status</t>
-  </si>
-  <si>
-    <t>Step_5_Enter_your_password_TEXTBOX_Verification</t>
-  </si>
-  <si>
-    <t>Step_5_Keep_me_logged_in_CHECKBOX_Status</t>
-  </si>
-  <si>
-    <t>Step_5_Keep_me_logged_in_CHECKBOX_Verification</t>
-  </si>
-  <si>
-    <t>Step_5_Only_allow_your_session_to_be_used_from_this_IP_address__CHECKBOX_Status</t>
-  </si>
-  <si>
-    <t>Step_5_Only_allow_your_session_to_be_used_from_this_IP_address__CHECKBOX_Verification</t>
-  </si>
-  <si>
-    <t>Step_5_Lost_your_password__HYPERLINK_Status</t>
-  </si>
-  <si>
-    <t>Step_5_Invalid_credentials_error_message_LABEL_Status</t>
-  </si>
-  <si>
-    <t>Step_5_Invalid_credentials_error_message_LABEL_Verification</t>
-  </si>
-  <si>
-    <t>Step_6_Enter_your_password_TEXTBOX</t>
-  </si>
-  <si>
-    <t>Step_6_Keep_me_logged_in_CHECKBOX</t>
-  </si>
-  <si>
-    <t>Step_6_Only_allow_your_session_to_be_used_from_this_IP_address__CHECKBOX</t>
-  </si>
-  <si>
-    <t>Step_8_Enter_your_password_TEXTBOX_Status</t>
-  </si>
-  <si>
-    <t>Step_8_Enter_your_password_TEXTBOX_Verification</t>
-  </si>
-  <si>
-    <t>Step_8_Login_BUTTON_Status</t>
-  </si>
-  <si>
-    <t>Step_8_Keep_me_logged_in_CHECKBOX_Status</t>
-  </si>
-  <si>
-    <t>Step_8_Keep_me_logged_in_CHECKBOX_Verification</t>
-  </si>
-  <si>
-    <t>Step_8_Only_allow_your_session_to_be_used_from_this_IP_address__CHECKBOX_Status</t>
-  </si>
-  <si>
-    <t>Step_8_Only_allow_your_session_to_be_used_from_this_IP_address__CHECKBOX_Verification</t>
-  </si>
-  <si>
-    <t>Step_8_Lost_your_password__HYPERLINK_Status</t>
-  </si>
-  <si>
-    <t>Step_8_Invalid_credentials_error_message_LABEL_Status</t>
-  </si>
-  <si>
-    <t>Step_8_Invalid_credentials_error_message_LABEL_Verification</t>
-  </si>
-  <si>
-    <t>administrator</t>
-  </si>
-  <si>
-    <t>Step_8_Issue_ID_SELF_HYPERLINK_Status</t>
-  </si>
-  <si>
-    <t>Step_8_Issue_Name_SELF_HYPERLINK_Status</t>
-  </si>
-  <si>
-    <t>Step_8_View_Issues_SELF_BUTTON_Status</t>
-  </si>
-  <si>
-    <t>Step_8_fghj_LABEL_Status</t>
-  </si>
-  <si>
-    <t>Step_8_fghj_LABEL_Verification</t>
-  </si>
-  <si>
-    <t>Step_8_Issue_ID_UN_HYPERLINK_Status</t>
-  </si>
-  <si>
-    <t>Step_8_Issue_Name_UN_HYPERLINK_Status</t>
-  </si>
-  <si>
-    <t>Step_8_View_Issues_UN_BUTTON_Status</t>
-  </si>
-  <si>
-    <t>Step_8_Issue_ID_REP_ME_HYPERLINK_Status</t>
-  </si>
-  <si>
-    <t>Step_8_Issue_Name_REP_ME_HYPERLINK_Status</t>
-  </si>
-  <si>
-    <t>Step_8_View_Issues_REP_ME_BUTTON_Status</t>
-  </si>
-  <si>
-    <t>Step_8_Issue_ID_RES_HYPERLINK_Status</t>
-  </si>
-  <si>
-    <t>Step_8_Issue_Name_RES_HYPERLINK_Status</t>
-  </si>
-  <si>
-    <t>Step_8_View_Issues_RES_BUTTON_Status</t>
-  </si>
-  <si>
-    <t>Step_8_Issue_ID_REC_HYPERLINK_Status</t>
-  </si>
-  <si>
-    <t>Step_8_Issue_Name_REC_HYPERLINK_Status</t>
-  </si>
-  <si>
-    <t>Step_8_View_Issues_REC_BUTTON_Status</t>
-  </si>
-  <si>
-    <t>Step_8_Previous_BUTTON_Status</t>
-  </si>
-  <si>
-    <t>Step_8_username_TIMELINE_HYPERLINK_Status</t>
-  </si>
-  <si>
-    <t>Step_8_Issue_ID_TIMELINE_HYPERLINK_Status</t>
-  </si>
-  <si>
-    <t>invalidadmin</t>
+    <t>Step_9_projectnameCNP_TEXTBOX</t>
+  </si>
+  <si>
+    <t>DemoMantis</t>
+  </si>
+  <si>
+    <t>Step_9_Description_CNP_TEXTBOX</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Step_9_Status_DROPDOWN</t>
+  </si>
+  <si>
+    <t>development</t>
+  </si>
+  <si>
+    <t>Step_9_ViewStatus_DROPDOWN</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>Step_9_InheritanceGlobal_Sts_CHECKBOX</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Step_12_Category_DROPDOWN_Status</t>
+  </si>
+  <si>
+    <t>Step_12_Category_DROPDOWN_Verification</t>
+  </si>
+  <si>
+    <t>Step_12_Reproducibility_DROPDOWN_Status</t>
+  </si>
+  <si>
+    <t>Step_12_Reproducibility_DROPDOWN_Verification</t>
+  </si>
+  <si>
+    <t>Step_12_Severity_DROPDOWN_Status</t>
+  </si>
+  <si>
+    <t>Step_12_Severity_DROPDOWN_Verification</t>
+  </si>
+  <si>
+    <t>Step_12_Priority_DROPDOWN_Status</t>
+  </si>
+  <si>
+    <t>Step_12_Priority_DROPDOWN_Verification</t>
+  </si>
+  <si>
+    <t>Step_12_Assign_to_DROPDOWN_Status</t>
+  </si>
+  <si>
+    <t>Step_12_Assign_to_DROPDOWN_Verification</t>
+  </si>
+  <si>
+    <t>Step_12_Summary_TEXT_TEXTBOX_Status</t>
+  </si>
+  <si>
+    <t>Step_12_Summary_TEXT_TEXTBOX_Verification</t>
+  </si>
+  <si>
+    <t>Step_12_Description_TEXTBOX_Status</t>
+  </si>
+  <si>
+    <t>Step_12_Description_TEXTBOX_Verification</t>
+  </si>
+  <si>
+    <t>Step_12_Platform_TEXTBOX_Status</t>
+  </si>
+  <si>
+    <t>Step_12_Platform_TEXTBOX_Verification</t>
+  </si>
+  <si>
+    <t>Step_12_OS_TEXTBOX_Status</t>
+  </si>
+  <si>
+    <t>Step_12_OS_TEXTBOX_Verification</t>
+  </si>
+  <si>
+    <t>Step_12_OS_Version_TEXTBOX_Status</t>
+  </si>
+  <si>
+    <t>Step_12_OS_Version_TEXTBOX_Verification</t>
+  </si>
+  <si>
+    <t>Step_12_Steps_to_Reproduce_TEXTBOX_Status</t>
+  </si>
+  <si>
+    <t>Step_12_Steps_to_Reproduce_TEXTBOX_Verification</t>
+  </si>
+  <si>
+    <t>Step_12_Additional_Information_TEXTBOX_Status</t>
+  </si>
+  <si>
+    <t>Step_12_Additional_Information_TEXTBOX_Verification</t>
+  </si>
+  <si>
+    <t>Step_12_Attach_Tags_TEXTBOX_Status</t>
+  </si>
+  <si>
+    <t>Step_12_Attach_Tags_TEXTBOX_Verification</t>
+  </si>
+  <si>
+    <t>Step_12_Report_Stay_CHECKBOX_Status</t>
+  </si>
+  <si>
+    <t>Step_12_Report_Stay_CHECKBOX_Verification</t>
+  </si>
+  <si>
+    <t>Step_12_Submit_Issue_BUTTON_Status</t>
+  </si>
+  <si>
+    <t>Step_12_Select_Profile_HYPERLINK_Status</t>
+  </si>
+  <si>
+    <t>Step_12_Upload_Files_HYPERLINK_Status</t>
+  </si>
+  <si>
+    <t>Step_12_Existing_tags_DROPDOWN_Status</t>
+  </si>
+  <si>
+    <t>Step_12_Existing_tags_DROPDOWN_Verification</t>
+  </si>
+  <si>
+    <t>Step_12_public_RADIOBUTTON_Status</t>
+  </si>
+  <si>
+    <t>Step_12_private_RADIOBUTTON_Status</t>
+  </si>
+  <si>
+    <t>Step_13_Category_DROPDOWN</t>
+  </si>
+  <si>
+    <t>Project 1</t>
+  </si>
+  <si>
+    <t>Step_13_Reproducibility_DROPDOWN</t>
+  </si>
+  <si>
+    <t>sometimes</t>
+  </si>
+  <si>
+    <t>Step_13_Severity_DROPDOWN</t>
+  </si>
+  <si>
+    <t>trival</t>
+  </si>
+  <si>
+    <t>Step_13_Priority_DROPDOWN</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>Step_13_Assign_to_DROPDOWN</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>Step_13_Summary_TEXT_TEXTBOX</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Step_13_Description_TEXTBOX</t>
+  </si>
+  <si>
+    <t>Step_13_Platform_TEXTBOX</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Step_13_OS_TEXTBOX</t>
+  </si>
+  <si>
+    <t>Os</t>
+  </si>
+  <si>
+    <t>Step_13_OS_Version_TEXTBOX</t>
+  </si>
+  <si>
+    <t>OS version</t>
+  </si>
+  <si>
+    <t>Step_13_Steps_to_Reproduce_TEXTBOX</t>
+  </si>
+  <si>
+    <t>Sreps to reproduce</t>
+  </si>
+  <si>
+    <t>Step_13_Additional_Information_TEXTBOX</t>
+  </si>
+  <si>
+    <t>ADDitional info</t>
+  </si>
+  <si>
+    <t>Step_13_Attach_Tags_TEXTBOX</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Step_13_Report_Stay_CHECKBOX</t>
+  </si>
+  <si>
+    <t>Step_13_Existing_tags_DROPDOWN</t>
   </si>
 </sst>
 </file>
@@ -252,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -301,6 +517,57 @@
       <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -343,7 +610,58 @@
         <v>3</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -353,7 +671,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -403,55 +721,55 @@
         <v>16</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>36</v>
@@ -467,6 +785,51 @@
       </c>
       <c r="AJ1" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -492,7 +855,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>3</v>
@@ -510,7 +873,7 @@
         <v>3</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>3</v>
@@ -525,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>3</v>
@@ -540,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>3</v>
@@ -561,7 +924,7 @@
         <v>3</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>3</v>
@@ -576,7 +939,52 @@
         <v>3</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -586,7 +994,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BE2"/>
+  <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -636,55 +1044,55 @@
         <v>16</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="AF1" s="3" t="s">
         <v>36</v>
@@ -702,64 +1110,49 @@
         <v>40</v>
       </c>
       <c r="AK1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2">
@@ -785,7 +1178,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>3</v>
@@ -803,7 +1196,7 @@
         <v>3</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>3</v>
@@ -818,7 +1211,7 @@
         <v>3</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>3</v>
@@ -833,7 +1226,7 @@
         <v>3</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>3</v>
@@ -854,7 +1247,7 @@
         <v>3</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="AF2" s="3" t="s">
         <v>3</v>
@@ -869,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="AK2" s="3" t="s">
         <v>3</v>
@@ -914,21 +1307,6 @@
         <v>3</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AZ2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -939,7 +1317,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BE2"/>
+  <dimension ref="A1:DH2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -989,55 +1367,55 @@
         <v>16</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="AF1" s="4" t="s">
         <v>36</v>
@@ -1055,64 +1433,229 @@
         <v>40</v>
       </c>
       <c r="AK1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AY1" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="AZ1" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BA1" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BB1" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BC1" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BD1" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BU1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BX1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BY1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="CA1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="CB1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="CE1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="CF1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="CG1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="CH1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CI1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CJ1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="CL1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="CM1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="CN1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="CO1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CR1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="CS1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="CT1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="CU1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="CV1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="CW1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="CX1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="CY1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CZ1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="DA1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="DB1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="DC1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="DD1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="DE1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="DF1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="DG1" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2">
@@ -1138,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>3</v>
@@ -1156,7 +1699,7 @@
         <v>3</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>3</v>
@@ -1171,7 +1714,7 @@
         <v>3</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>3</v>
@@ -1186,7 +1729,7 @@
         <v>3</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="Y2" s="4" t="s">
         <v>3</v>
@@ -1207,7 +1750,7 @@
         <v>3</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="AF2" s="4" t="s">
         <v>3</v>
@@ -1222,7 +1765,7 @@
         <v>3</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="AK2" s="4" t="s">
         <v>3</v>
@@ -1282,6 +1825,171 @@
         <v>3</v>
       </c>
       <c r="BD2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BE2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BF2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CC2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CD2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CE2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CH2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CI2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CQ2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="CT2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CU2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="CV2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="CW2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="CY2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="CZ2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DA2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="DB2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="DC2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="DD2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="DE2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="DF2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="DG2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
